--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -629,7 +629,7 @@
         <v>4.847529837785449</v>
       </c>
       <c r="T2" t="n">
-        <v>2.561740795142915</v>
+        <v>2.561740795142914</v>
       </c>
       <c r="U2" t="n">
         <v>7.679602320040472</v>
@@ -647,7 +647,7 @@
         <v>0.5012564468141084</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08671593596430897</v>
+        <v>0.08671593596430899</v>
       </c>
       <c r="AA2" t="n">
         <v>1.167611023953077</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.653850372877351</v>
+        <v>-6.653850372877349</v>
       </c>
       <c r="E3" t="n">
         <v>-3.777983360318849</v>
@@ -673,7 +673,7 @@
         <v>-9.845004449485847</v>
       </c>
       <c r="G3" t="n">
-        <v>-13.13099943352039</v>
+        <v>-13.13099943352038</v>
       </c>
       <c r="H3" t="n">
         <v>-9.155920934418848</v>
@@ -688,7 +688,7 @@
         <v>-4.525418080242502</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.990217861802321</v>
+        <v>-5.990217861802318</v>
       </c>
       <c r="M3" t="n">
         <v>8.43277358697382</v>
@@ -727,10 +727,10 @@
         <v>8.102746132103007</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.214640662029746</v>
+        <v>1.214640662029747</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.255347877548603</v>
+        <v>0.2553478775486029</v>
       </c>
       <c r="AA3" t="n">
         <v>2.498574249197327</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.05938356311383</v>
+        <v>-5.059383563113828</v>
       </c>
       <c r="E4" t="n">
         <v>-2.855626268883255</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.4991507405165</v>
+        <v>-7.499150740516498</v>
       </c>
       <c r="G4" t="n">
         <v>-10.91945728135643</v>
@@ -765,7 +765,7 @@
         <v>-14.01207841720917</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.473978339703567</v>
+        <v>-3.473978339703564</v>
       </c>
       <c r="K4" t="n">
         <v>-3.137442126731195</v>
@@ -795,13 +795,13 @@
         <v>9.068572947209555</v>
       </c>
       <c r="T4" t="n">
-        <v>5.350787380564975</v>
+        <v>5.350787380564977</v>
       </c>
       <c r="U4" t="n">
         <v>12.95778460381198</v>
       </c>
       <c r="V4" t="n">
-        <v>4.847962420548075</v>
+        <v>4.847962420548076</v>
       </c>
       <c r="W4" t="n">
         <v>2.440740317889772</v>
@@ -810,7 +810,7 @@
         <v>7.634459529843993</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.094626188295676</v>
+        <v>1.094626188295677</v>
       </c>
       <c r="Z4" t="n">
         <v>0.2374655875230915</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.991830995787432</v>
+        <v>-2.99183099578743</v>
       </c>
       <c r="E5" t="n">
         <v>-1.804356374430442</v>
@@ -842,13 +842,13 @@
         <v>-4.683885821861997</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.646284197396372</v>
+        <v>-3.646284197396374</v>
       </c>
       <c r="I5" t="n">
         <v>-5.28492462163951</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.143847255564074</v>
+        <v>-1.143847255564072</v>
       </c>
       <c r="K5" t="n">
         <v>-1.430175854912371</v>
@@ -860,10 +860,10 @@
         <v>3.648530898127699</v>
       </c>
       <c r="N5" t="n">
-        <v>1.482154955332566</v>
+        <v>1.482154955332567</v>
       </c>
       <c r="O5" t="n">
-        <v>6.22672668789922</v>
+        <v>6.226726687899221</v>
       </c>
       <c r="P5" t="n">
         <v>7.097098413741938</v>
@@ -878,7 +878,7 @@
         <v>6.716528596649241</v>
       </c>
       <c r="T5" t="n">
-        <v>3.997136178327147</v>
+        <v>3.997136178327148</v>
       </c>
       <c r="U5" t="n">
         <v>9.617205912114816</v>
@@ -887,7 +887,7 @@
         <v>4.261137239349947</v>
       </c>
       <c r="W5" t="n">
-        <v>2.137567235025841</v>
+        <v>2.137567235025842</v>
       </c>
       <c r="X5" t="n">
         <v>6.621329139897565</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.235600264892882</v>
+        <v>1.235600264892883</v>
       </c>
       <c r="E6" t="n">
         <v>0.5751079821348768</v>
@@ -931,7 +931,7 @@
         <v>6.336909884145276</v>
       </c>
       <c r="J6" t="n">
-        <v>6.220452009404985</v>
+        <v>6.220452009404987</v>
       </c>
       <c r="K6" t="n">
         <v>3.567783202306248</v>
@@ -952,7 +952,7 @@
         <v>6.695433194881383</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.888807582705748</v>
+        <v>3.888807582705747</v>
       </c>
       <c r="R6" t="n">
         <v>9.979511505101545</v>
@@ -976,7 +976,7 @@
         <v>4.965851948171089</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7244262203586667</v>
+        <v>0.7244262203586669</v>
       </c>
       <c r="Z6" t="n">
         <v>0.126777238698121</v>
@@ -1005,19 +1005,19 @@
         <v>-1.62722335378773</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5461253458837518</v>
+        <v>0.5461253458837527</v>
       </c>
       <c r="H7" t="n">
         <v>0.08093738772297154</v>
       </c>
       <c r="I7" t="n">
-        <v>1.168469223722488</v>
+        <v>1.168469223722491</v>
       </c>
       <c r="J7" t="n">
         <v>8.149993546797489</v>
       </c>
       <c r="K7" t="n">
-        <v>4.82206030490426</v>
+        <v>4.822060304904259</v>
       </c>
       <c r="L7" t="n">
         <v>11.86922909298898</v>
@@ -1035,7 +1035,7 @@
         <v>13.61013864447911</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.886138470874117</v>
+        <v>8.886138470874119</v>
       </c>
       <c r="R7" t="n">
         <v>18.61082178902619</v>
@@ -1059,7 +1059,7 @@
         <v>5.561572923278479</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6764763632445255</v>
+        <v>0.6764763632445256</v>
       </c>
       <c r="Z7" t="n">
         <v>0.1464382804892205</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.082641138416786</v>
+        <v>1.082641138416784</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7378056825821042</v>
+        <v>0.7378056825821043</v>
       </c>
       <c r="F8" t="n">
         <v>1.380613683982684</v>
@@ -1094,10 +1094,10 @@
         <v>3.78666160818413</v>
       </c>
       <c r="I8" t="n">
-        <v>7.508861329093646</v>
+        <v>7.508861329093648</v>
       </c>
       <c r="J8" t="n">
-        <v>17.13694139530176</v>
+        <v>17.13694139530177</v>
       </c>
       <c r="K8" t="n">
         <v>10.84950111887724</v>
@@ -1124,7 +1124,7 @@
         <v>27.14783014959932</v>
       </c>
       <c r="S8" t="n">
-        <v>7.860641975811156</v>
+        <v>7.860641975811154</v>
       </c>
       <c r="T8" t="n">
         <v>4.117032172238153</v>
@@ -1133,7 +1133,7 @@
         <v>12.40090329173631</v>
       </c>
       <c r="V8" t="n">
-        <v>2.34193986020582</v>
+        <v>2.341939860205821</v>
       </c>
       <c r="W8" t="n">
         <v>0.9671236460981927</v>
@@ -1142,10 +1142,10 @@
         <v>4.494548537027966</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3079122562485282</v>
+        <v>0.3079122562485279</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.09868326884901257</v>
+        <v>0.09868326884901249</v>
       </c>
       <c r="AA8" t="n">
         <v>0.8224220976653895</v>
@@ -1177,10 +1177,10 @@
         <v>-0.4052642205810812</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8154859887366452</v>
+        <v>0.815485988736647</v>
       </c>
       <c r="J9" t="n">
-        <v>4.613461402784326</v>
+        <v>4.613461402784327</v>
       </c>
       <c r="K9" t="n">
         <v>2.469752781328477</v>
@@ -1189,7 +1189,7 @@
         <v>7.229450275543671</v>
       </c>
       <c r="M9" t="n">
-        <v>9.400542819159309</v>
+        <v>9.400542819159307</v>
       </c>
       <c r="N9" t="n">
         <v>5.451575189400187</v>
@@ -1216,7 +1216,7 @@
         <v>9.470187750202914</v>
       </c>
       <c r="V9" t="n">
-        <v>3.543835548426097</v>
+        <v>3.543835548426096</v>
       </c>
       <c r="W9" t="n">
         <v>1.718949004936979</v>
@@ -1225,7 +1225,7 @@
         <v>5.721096783536661</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8162509720547706</v>
+        <v>0.8162509720547709</v>
       </c>
       <c r="Z9" t="n">
         <v>0.1555642302898795</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.121138779570055</v>
+        <v>2.121138779570054</v>
       </c>
       <c r="E10" t="n">
         <v>1.272555856276234</v>
@@ -1263,7 +1263,7 @@
         <v>13.59529392445649</v>
       </c>
       <c r="J10" t="n">
-        <v>20.27839677120887</v>
+        <v>20.27839677120886</v>
       </c>
       <c r="K10" t="n">
         <v>13.07150826907325</v>
@@ -1305,13 +1305,13 @@
         <v>0.7010208695833584</v>
       </c>
       <c r="X10" t="n">
-        <v>3.77564454981952</v>
+        <v>3.775644549819521</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2301368161554089</v>
+        <v>0.2301368161554085</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06631567502159649</v>
+        <v>0.06631567502159642</v>
       </c>
       <c r="AA10" t="n">
         <v>0.6702061180574452</v>
@@ -1334,10 +1334,10 @@
         <v>1.533925979441364</v>
       </c>
       <c r="F11" t="n">
-        <v>4.340950931364851</v>
+        <v>4.34095093136485</v>
       </c>
       <c r="G11" t="n">
-        <v>11.50848079216565</v>
+        <v>11.50848079216566</v>
       </c>
       <c r="H11" t="n">
         <v>7.264827524798559</v>
@@ -1373,16 +1373,16 @@
         <v>13.55782584933548</v>
       </c>
       <c r="S11" t="n">
-        <v>4.589561123885555</v>
+        <v>4.589561123885556</v>
       </c>
       <c r="T11" t="n">
         <v>2.350163516814892</v>
       </c>
       <c r="U11" t="n">
-        <v>7.507351833188487</v>
+        <v>7.507351833188488</v>
       </c>
       <c r="V11" t="n">
-        <v>1.998922796952978</v>
+        <v>1.998922796952977</v>
       </c>
       <c r="W11" t="n">
         <v>0.827736505449037</v>
@@ -1391,13 +1391,13 @@
         <v>3.648210176971146</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.39810114700362</v>
+        <v>0.3981011470036199</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06453692325600842</v>
+        <v>0.0645369232560084</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9719201248665715</v>
+        <v>0.9719201248665716</v>
       </c>
     </row>
     <row r="12">
@@ -1432,7 +1432,7 @@
         <v>14.30789175189288</v>
       </c>
       <c r="K12" t="n">
-        <v>9.174978110365918</v>
+        <v>9.17497811036592</v>
       </c>
       <c r="L12" t="n">
         <v>19.74689755099908</v>
@@ -1441,7 +1441,7 @@
         <v>5.09969253132545</v>
       </c>
       <c r="N12" t="n">
-        <v>2.698669558183887</v>
+        <v>2.698669558183888</v>
       </c>
       <c r="O12" t="n">
         <v>7.856036277131297</v>
@@ -1456,10 +1456,10 @@
         <v>4.926515565410835</v>
       </c>
       <c r="S12" t="n">
-        <v>2.521478966612128</v>
+        <v>2.521478966612129</v>
       </c>
       <c r="T12" t="n">
-        <v>1.218841146816796</v>
+        <v>1.218841146816795</v>
       </c>
       <c r="U12" t="n">
         <v>4.367235458599314</v>
@@ -1474,10 +1474,10 @@
         <v>3.052489201863756</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4460510041177612</v>
+        <v>0.4460510041177613</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0448758814649089</v>
+        <v>0.04487588146490895</v>
       </c>
       <c r="AA12" t="n">
         <v>1.055055310070593</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.548042400369207</v>
+        <v>6.548042400369205</v>
       </c>
       <c r="E13" t="n">
         <v>3.612014789839967</v>
@@ -1533,13 +1533,13 @@
         <v>8.860867909036955</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.274236211232333</v>
+        <v>5.274236211232332</v>
       </c>
       <c r="R13" t="n">
         <v>13.16673675319464</v>
       </c>
       <c r="S13" t="n">
-        <v>3.028551957725601</v>
+        <v>3.028551957725602</v>
       </c>
       <c r="T13" t="n">
         <v>1.251910258993023</v>
@@ -1548,7 +1548,7 @@
         <v>5.688554572770038</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8051052944564172</v>
+        <v>0.805105294456417</v>
       </c>
       <c r="W13" t="n">
         <v>0.1599212318064598</v>
@@ -1557,7 +1557,7 @@
         <v>2.00726932450752</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.08591648408355468</v>
+        <v>0.08591648408355435</v>
       </c>
       <c r="Z13" t="n">
         <v>-0.005027491516693586</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4.179248631916312</v>
+        <v>4.179248631916311</v>
       </c>
       <c r="E14" t="n">
         <v>2.305595297793601</v>
@@ -1619,13 +1619,13 @@
         <v>6.510149230563036</v>
       </c>
       <c r="R14" t="n">
-        <v>15.04738447020279</v>
+        <v>15.04738447020278</v>
       </c>
       <c r="S14" t="n">
         <v>4.46155980692063</v>
       </c>
       <c r="T14" t="n">
-        <v>2.192344008045421</v>
+        <v>2.19234400804542</v>
       </c>
       <c r="U14" t="n">
         <v>7.476160497616551</v>
@@ -1640,10 +1640,10 @@
         <v>3.187191744343556</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.280896535590147</v>
+        <v>0.2808965355901468</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04593851278336545</v>
+        <v>0.04593851278336544</v>
       </c>
       <c r="AA14" t="n">
         <v>0.7571559570145669</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.670188381302488</v>
+        <v>0.6701883813024898</v>
       </c>
       <c r="E15" t="n">
         <v>0.1692706114579658</v>
@@ -1678,19 +1678,19 @@
         <v>6.209930129141117</v>
       </c>
       <c r="J15" t="n">
-        <v>3.297705773106397</v>
+        <v>3.297705773106399</v>
       </c>
       <c r="K15" t="n">
-        <v>1.665066370417757</v>
+        <v>1.66506637041776</v>
       </c>
       <c r="L15" t="n">
-        <v>5.449634564731918</v>
+        <v>5.44963456473192</v>
       </c>
       <c r="M15" t="n">
         <v>-1.135711790718419</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.665663131662367</v>
+        <v>-1.665663131662365</v>
       </c>
       <c r="O15" t="n">
         <v>-0.2153469092280567</v>
@@ -1699,22 +1699,22 @@
         <v>2.045797942175197</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5551127297503822</v>
+        <v>0.5551127297503831</v>
       </c>
       <c r="R15" t="n">
         <v>4.025904155877251</v>
       </c>
       <c r="S15" t="n">
-        <v>4.262476408510994</v>
+        <v>4.262476408510995</v>
       </c>
       <c r="T15" t="n">
-        <v>2.496417021231557</v>
+        <v>2.496417021231556</v>
       </c>
       <c r="U15" t="n">
         <v>6.27364771510172</v>
       </c>
       <c r="V15" t="n">
-        <v>3.308105616204527</v>
+        <v>3.308105616204526</v>
       </c>
       <c r="W15" t="n">
         <v>1.639173147918413</v>
@@ -1723,7 +1723,7 @@
         <v>5.139912147692121</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8698205538101056</v>
+        <v>0.8698205538101061</v>
       </c>
       <c r="Z15" t="n">
         <v>0.1344709476045169</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7072588999650882</v>
+        <v>0.7072588999650891</v>
       </c>
       <c r="E16" t="n">
         <v>0.273732435968161</v>
@@ -1752,7 +1752,7 @@
         <v>1.272448508817993</v>
       </c>
       <c r="G16" t="n">
-        <v>4.266454970754667</v>
+        <v>4.266454970754668</v>
       </c>
       <c r="H16" t="n">
         <v>2.349554147930156</v>
@@ -1770,10 +1770,10 @@
         <v>10.08941338217723</v>
       </c>
       <c r="M16" t="n">
-        <v>7.008421474736249</v>
+        <v>7.008421474736248</v>
       </c>
       <c r="N16" t="n">
-        <v>3.877666145902722</v>
+        <v>3.877666145902721</v>
       </c>
       <c r="O16" t="n">
         <v>10.55089006419337</v>
@@ -1797,7 +1797,7 @@
         <v>7.798408651696366</v>
       </c>
       <c r="V16" t="n">
-        <v>3.067319736853387</v>
+        <v>3.067319736853386</v>
       </c>
       <c r="W16" t="n">
         <v>1.469751961383264</v>
@@ -1806,10 +1806,10 @@
         <v>4.980388287433939</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7300459449998605</v>
+        <v>0.7300459449998609</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1253449978038579</v>
+        <v>0.125344997803858</v>
       </c>
       <c r="AA16" t="n">
         <v>1.589510052150886</v>
@@ -1859,13 +1859,13 @@
         <v>2.825778500245574</v>
       </c>
       <c r="O17" t="n">
-        <v>8.059078496040872</v>
+        <v>8.05907849604087</v>
       </c>
       <c r="P17" t="n">
         <v>2.73869773663753</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9413401289868766</v>
+        <v>0.9413401289868757</v>
       </c>
       <c r="R17" t="n">
         <v>5.322231795796609</v>
@@ -1874,13 +1874,13 @@
         <v>2.625452884160103</v>
       </c>
       <c r="T17" t="n">
-        <v>1.261847362463636</v>
+        <v>1.261847362463635</v>
       </c>
       <c r="U17" t="n">
         <v>4.480082779623352</v>
       </c>
       <c r="V17" t="n">
-        <v>1.745059433166528</v>
+        <v>1.745059433166527</v>
       </c>
       <c r="W17" t="n">
         <v>0.7817721143527107</v>
@@ -1892,7 +1892,7 @@
         <v>0.4348115548353735</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04774036325343498</v>
+        <v>0.04774036325343504</v>
       </c>
       <c r="AA17" t="n">
         <v>1.039796695058194</v>
@@ -1915,7 +1915,7 @@
         <v>-2.554250722716539</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.70533899964426</v>
+        <v>-6.705338999644262</v>
       </c>
       <c r="G18" t="n">
         <v>-11.04093715434025</v>
@@ -1927,10 +1927,10 @@
         <v>-14.23808189719085</v>
       </c>
       <c r="J18" t="n">
-        <v>-4.087764247418143</v>
+        <v>-4.087764247418139</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.587032818418488</v>
+        <v>-3.58703281841849</v>
       </c>
       <c r="L18" t="n">
         <v>-3.929529841400523</v>
@@ -1954,25 +1954,25 @@
         <v>18.10592660987838</v>
       </c>
       <c r="S18" t="n">
-        <v>9.120559905983542</v>
+        <v>9.120559905983541</v>
       </c>
       <c r="T18" t="n">
-        <v>5.372290488388396</v>
+        <v>5.372290488388397</v>
       </c>
       <c r="U18" t="n">
         <v>13.014208264324</v>
       </c>
       <c r="V18" t="n">
-        <v>4.841917943359783</v>
+        <v>4.841917943359784</v>
       </c>
       <c r="W18" t="n">
         <v>2.452010806530519</v>
       </c>
       <c r="X18" t="n">
-        <v>7.619923190581143</v>
+        <v>7.619923190581142</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.089006463654482</v>
+        <v>1.089006463654483</v>
       </c>
       <c r="Z18" t="n">
         <v>0.2388978284173546</v>
@@ -2010,10 +2010,10 @@
         <v>27.37788664045809</v>
       </c>
       <c r="J19" t="n">
-        <v>20.37209336409857</v>
+        <v>20.37209336409856</v>
       </c>
       <c r="K19" t="n">
-        <v>13.29970209245041</v>
+        <v>13.29970209245042</v>
       </c>
       <c r="L19" t="n">
         <v>27.62201346210854</v>
@@ -2034,19 +2034,19 @@
         <v>2.084296555802454</v>
       </c>
       <c r="R19" t="n">
-        <v>7.509916576759677</v>
+        <v>7.509916576759676</v>
       </c>
       <c r="S19" t="n">
-        <v>2.161502415134303</v>
+        <v>2.161502415134304</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8601959136310118</v>
+        <v>0.8601959136310111</v>
       </c>
       <c r="U19" t="n">
         <v>4.192005466431402</v>
       </c>
       <c r="V19" t="n">
-        <v>1.042868935213411</v>
+        <v>1.04286893521341</v>
       </c>
       <c r="W19" t="n">
         <v>0.3349776626619814</v>
@@ -2055,10 +2055,10 @@
         <v>2.159525015134277</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2228812305732029</v>
+        <v>0.2228812305732027</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.004814578731096891</v>
+        <v>0.004814578731096933</v>
       </c>
       <c r="AA19" t="n">
         <v>0.6407855893789839</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.897619641982802</v>
+        <v>4.897619641982803</v>
       </c>
       <c r="E20" t="n">
         <v>2.548734968023284</v>
@@ -2096,7 +2096,7 @@
         <v>10.66200503807546</v>
       </c>
       <c r="K20" t="n">
-        <v>6.663025427636377</v>
+        <v>6.663025427636378</v>
       </c>
       <c r="L20" t="n">
         <v>15.05859162138318</v>
@@ -2108,7 +2108,7 @@
         <v>0.793402529938632</v>
       </c>
       <c r="O20" t="n">
-        <v>4.210337576520885</v>
+        <v>4.210337576520883</v>
       </c>
       <c r="P20" t="n">
         <v>1.644132723314643</v>
@@ -2120,31 +2120,31 @@
         <v>3.832673174929301</v>
       </c>
       <c r="S20" t="n">
-        <v>2.753454201125028</v>
+        <v>2.753454201125029</v>
       </c>
       <c r="T20" t="n">
-        <v>1.419666871233108</v>
+        <v>1.419666871233107</v>
       </c>
       <c r="U20" t="n">
         <v>4.511274115195289</v>
       </c>
       <c r="V20" t="n">
-        <v>2.108243636519673</v>
+        <v>2.108243636519672</v>
       </c>
       <c r="W20" t="n">
-        <v>0.982628362916582</v>
+        <v>0.9826283629165821</v>
       </c>
       <c r="X20" t="n">
         <v>3.484434955965645</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5520161662488465</v>
+        <v>0.5520161662488468</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06633877372607794</v>
+        <v>0.06633877372607799</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.254560862910199</v>
+        <v>1.254560862910198</v>
       </c>
     </row>
     <row r="21">
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.736313826138216</v>
+        <v>1.736313826138218</v>
       </c>
       <c r="E21" t="n">
         <v>0.7902521567268443</v>
@@ -2173,16 +2173,16 @@
         <v>3.473113845704655</v>
       </c>
       <c r="I21" t="n">
-        <v>9.203634564333774</v>
+        <v>9.203634564333775</v>
       </c>
       <c r="J21" t="n">
         <v>6.022913625351954</v>
       </c>
       <c r="K21" t="n">
-        <v>3.502633015616359</v>
+        <v>3.50263301561636</v>
       </c>
       <c r="L21" t="n">
-        <v>9.011818533256061</v>
+        <v>9.01181853325606</v>
       </c>
       <c r="M21" t="n">
         <v>1.740786384877868</v>
@@ -2203,7 +2203,7 @@
         <v>5.416533719148115</v>
       </c>
       <c r="S21" t="n">
-        <v>4.108481612159076</v>
+        <v>4.108481612159077</v>
       </c>
       <c r="T21" t="n">
         <v>2.327845958550375</v>
@@ -2212,7 +2212,7 @@
         <v>6.214244549273774</v>
       </c>
       <c r="V21" t="n">
-        <v>2.947943651445528</v>
+        <v>2.947943651445527</v>
       </c>
       <c r="W21" t="n">
         <v>1.432681655034168</v>
@@ -2221,10 +2221,10 @@
         <v>4.686161884695957</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7554258047172296</v>
+        <v>0.75542580471723</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1151564166847424</v>
+        <v>0.1151564166847425</v>
       </c>
       <c r="AA21" t="n">
         <v>1.632984971629447</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.687977785651118</v>
+        <v>3.687977785651117</v>
       </c>
       <c r="E22" t="n">
         <v>2.10868157613708</v>
@@ -2250,13 +2250,13 @@
         <v>5.399840130602033</v>
       </c>
       <c r="G22" t="n">
-        <v>14.40546993476362</v>
+        <v>14.40546993476363</v>
       </c>
       <c r="H22" t="n">
         <v>9.38228780383935</v>
       </c>
       <c r="I22" t="n">
-        <v>19.45572303983764</v>
+        <v>19.45572303983765</v>
       </c>
       <c r="J22" t="n">
         <v>22.80606623940139</v>
@@ -2298,16 +2298,16 @@
         <v>1.400997191436986</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4461885817092706</v>
+        <v>0.4461885817092707</v>
       </c>
       <c r="X22" t="n">
         <v>3.042204223348224</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1467416514210957</v>
+        <v>0.1467416514210954</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03538032208844345</v>
+        <v>0.0353803220884434</v>
       </c>
       <c r="AA22" t="n">
         <v>0.5103608309433013</v>
@@ -2324,31 +2324,31 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.557880799703035</v>
+        <v>3.557880799703036</v>
       </c>
       <c r="E23" t="n">
         <v>1.758835196735601</v>
       </c>
       <c r="F23" t="n">
-        <v>5.759743853168191</v>
+        <v>5.75974385316819</v>
       </c>
       <c r="G23" t="n">
-        <v>7.743824849657937</v>
+        <v>7.743824849657935</v>
       </c>
       <c r="H23" t="n">
         <v>4.532181449504597</v>
       </c>
       <c r="I23" t="n">
-        <v>11.50535054456807</v>
+        <v>11.50535054456806</v>
       </c>
       <c r="J23" t="n">
-        <v>4.290910472012481</v>
+        <v>4.290910472012483</v>
       </c>
       <c r="K23" t="n">
-        <v>2.313506099708235</v>
+        <v>2.313506099708236</v>
       </c>
       <c r="L23" t="n">
-        <v>6.80810172324313</v>
+        <v>6.808101723243132</v>
       </c>
       <c r="M23" t="n">
         <v>-3.523895414497614</v>
@@ -2363,22 +2363,22 @@
         <v>-0.2192722547163424</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1.108523305462623</v>
+        <v>-1.108523305462624</v>
       </c>
       <c r="R23" t="n">
-        <v>1.348201221176902</v>
+        <v>1.348201221176904</v>
       </c>
       <c r="S23" t="n">
-        <v>3.139424231989846</v>
+        <v>3.139424231989847</v>
       </c>
       <c r="T23" t="n">
-        <v>1.789063658330602</v>
+        <v>1.789063658330601</v>
       </c>
       <c r="U23" t="n">
         <v>4.714715937619211</v>
       </c>
       <c r="V23" t="n">
-        <v>2.81950085025523</v>
+        <v>2.819500850255229</v>
       </c>
       <c r="W23" t="n">
         <v>1.412517081646191</v>
@@ -2387,10 +2387,10 @@
         <v>4.370130973063699</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7723760774728079</v>
+        <v>0.7723760774728083</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1071161969070215</v>
+        <v>0.1071161969070216</v>
       </c>
       <c r="AA23" t="n">
         <v>1.665015929848708</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4430882175011914</v>
+        <v>0.4430882175011925</v>
       </c>
       <c r="E24" t="n">
         <v>0.123044662884803</v>
@@ -2416,19 +2416,19 @@
         <v>0.8755426383818743</v>
       </c>
       <c r="G24" t="n">
-        <v>4.32719490724658</v>
+        <v>4.327194907246581</v>
       </c>
       <c r="H24" t="n">
         <v>2.371051512588342</v>
       </c>
       <c r="I24" t="n">
-        <v>6.675915104117802</v>
+        <v>6.675915104117804</v>
       </c>
       <c r="J24" t="n">
         <v>7.14113087097685</v>
       </c>
       <c r="K24" t="n">
-        <v>4.242169239837189</v>
+        <v>4.24216923983719</v>
       </c>
       <c r="L24" t="n">
         <v>10.46478736920782</v>
@@ -2449,16 +2449,16 @@
         <v>3.745052385180262</v>
       </c>
       <c r="R24" t="n">
-        <v>9.682724332312215</v>
+        <v>9.682724332312214</v>
       </c>
       <c r="S24" t="n">
-        <v>5.129525951102292</v>
+        <v>5.129525951102293</v>
       </c>
       <c r="T24" t="n">
         <v>2.888131366593568</v>
       </c>
       <c r="U24" t="n">
-        <v>7.770196821440356</v>
+        <v>7.770196821440357</v>
       </c>
       <c r="V24" t="n">
         <v>3.070341975447533</v>
@@ -2470,7 +2470,7 @@
         <v>4.987656457065365</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7328558073204574</v>
+        <v>0.7328558073204577</v>
       </c>
       <c r="Z24" t="n">
         <v>0.1246288773567264</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.690589794660935</v>
+        <v>-2.690589794660934</v>
       </c>
       <c r="E25" t="n">
         <v>-1.549206776836889</v>
@@ -2508,7 +2508,7 @@
         <v>-5.04494312664451</v>
       </c>
       <c r="J25" t="n">
-        <v>2.0857919345918</v>
+        <v>2.085791934591803</v>
       </c>
       <c r="K25" t="n">
         <v>0.6973363228197647</v>
@@ -2520,7 +2520,7 @@
         <v>11.79364859374333</v>
       </c>
       <c r="N25" t="n">
-        <v>7.057261468413076</v>
+        <v>7.057261468413075</v>
       </c>
       <c r="O25" t="n">
         <v>17.04372421604805</v>
@@ -2553,7 +2553,7 @@
         <v>6.454537110007958</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.8996461367890839</v>
+        <v>0.8996461367890841</v>
       </c>
       <c r="Z25" t="n">
         <v>0.1864995832230325</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.792996555993803</v>
+        <v>2.792996555993804</v>
       </c>
       <c r="E26" t="n">
         <v>1.393003249060276</v>
@@ -2582,25 +2582,25 @@
         <v>4.508360857083389</v>
       </c>
       <c r="G26" t="n">
-        <v>5.853290068976523</v>
+        <v>5.85329006897652</v>
       </c>
       <c r="H26" t="n">
         <v>3.387124387071911</v>
       </c>
       <c r="I26" t="n">
-        <v>8.751627604370405</v>
+        <v>8.751627604370404</v>
       </c>
       <c r="J26" t="n">
-        <v>4.795341809922801</v>
+        <v>4.795341809922803</v>
       </c>
       <c r="K26" t="n">
-        <v>2.603451632241772</v>
+        <v>2.603451632241771</v>
       </c>
       <c r="L26" t="n">
         <v>7.510322585133714</v>
       </c>
       <c r="M26" t="n">
-        <v>1.744724105521733</v>
+        <v>1.744724105521732</v>
       </c>
       <c r="N26" t="n">
         <v>0.4620445451908424</v>
@@ -2618,13 +2618,13 @@
         <v>5.81224994953389</v>
       </c>
       <c r="S26" t="n">
-        <v>4.21245552970705</v>
+        <v>4.212455529707051</v>
       </c>
       <c r="T26" t="n">
         <v>2.370852174197215</v>
       </c>
       <c r="U26" t="n">
-        <v>6.327091870297813</v>
+        <v>6.327091870297812</v>
       </c>
       <c r="V26" t="n">
         <v>2.935854697068942</v>
@@ -2636,7 +2636,7 @@
         <v>4.657089206170256</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.744186355434842</v>
+        <v>0.7441863554348422</v>
       </c>
       <c r="Z26" t="n">
         <v>0.1180208984732685</v>
@@ -2665,7 +2665,7 @@
         <v>16.25221563054093</v>
       </c>
       <c r="G27" t="n">
-        <v>28.78445532345688</v>
+        <v>28.78445532345689</v>
       </c>
       <c r="H27" t="n">
         <v>18.72730787783119</v>
@@ -2674,7 +2674,7 @@
         <v>39.11272288623372</v>
       </c>
       <c r="J27" t="n">
-        <v>28.04328558292492</v>
+        <v>28.04328558292491</v>
       </c>
       <c r="K27" t="n">
         <v>18.52245649551268</v>
@@ -2683,31 +2683,31 @@
         <v>37.60634450579038</v>
       </c>
       <c r="M27" t="n">
-        <v>14.2115950289656</v>
+        <v>14.21159502896561</v>
       </c>
       <c r="N27" t="n">
         <v>9.063600982821661</v>
       </c>
       <c r="O27" t="n">
-        <v>19.72539982828324</v>
+        <v>19.72539982828325</v>
       </c>
       <c r="P27" t="n">
         <v>3.93985745691613</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.659453745755348</v>
+        <v>1.659453745755347</v>
       </c>
       <c r="R27" t="n">
         <v>7.217756538215283</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6264867283613427</v>
+        <v>0.6264867283613436</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.2273057902791478</v>
+        <v>-0.2273057902791482</v>
       </c>
       <c r="U27" t="n">
-        <v>2.401420036268961</v>
+        <v>2.40142003626896</v>
       </c>
       <c r="V27" t="n">
         <v>-0.1539708058772966</v>
@@ -2719,10 +2719,10 @@
         <v>0.5113159930392266</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.09211329466745943</v>
+        <v>-0.09211329466745977</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.06403371559447359</v>
+        <v>-0.06403371559447356</v>
       </c>
       <c r="AA27" t="n">
         <v>0.05522662031393066</v>
@@ -2748,19 +2748,19 @@
         <v>0.3823898695219459</v>
       </c>
       <c r="G28" t="n">
-        <v>4.89116202469677</v>
+        <v>4.891162024696771</v>
       </c>
       <c r="H28" t="n">
         <v>2.878750485550582</v>
       </c>
       <c r="I28" t="n">
-        <v>7.141900079094488</v>
+        <v>7.141900079094491</v>
       </c>
       <c r="J28" t="n">
         <v>10.9845559688473</v>
       </c>
       <c r="K28" t="n">
-        <v>6.819272109256619</v>
+        <v>6.81927210925662</v>
       </c>
       <c r="L28" t="n">
         <v>15.47994017368372</v>
@@ -2787,7 +2787,7 @@
         <v>5.996575493693591</v>
       </c>
       <c r="T28" t="n">
-        <v>3.279845711955579</v>
+        <v>3.27984571195558</v>
       </c>
       <c r="U28" t="n">
         <v>9.266745927778992</v>
@@ -2802,7 +2802,7 @@
         <v>4.835400766438608</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5958910608308092</v>
+        <v>0.5958910608308093</v>
       </c>
       <c r="Z28" t="n">
         <v>0.1147868071089359</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.388890488247995</v>
+        <v>5.388890488247997</v>
       </c>
       <c r="E29" t="n">
         <v>2.745648689679806</v>
@@ -2834,28 +2834,28 @@
         <v>11.96738165548713</v>
       </c>
       <c r="H29" t="n">
-        <v>7.286999818015834</v>
+        <v>7.286999818015833</v>
       </c>
       <c r="I29" t="n">
         <v>17.25277791995838</v>
       </c>
       <c r="J29" t="n">
-        <v>6.511686986347716</v>
+        <v>6.511686986347718</v>
       </c>
       <c r="K29" t="n">
-        <v>3.861127212373299</v>
+        <v>3.8611272123733</v>
       </c>
       <c r="L29" t="n">
-        <v>9.668064829876689</v>
+        <v>9.668064829876691</v>
       </c>
       <c r="M29" t="n">
         <v>-5.916016758920675</v>
       </c>
       <c r="N29" t="n">
-        <v>-4.686372276595613</v>
+        <v>-4.686372276595611</v>
       </c>
       <c r="O29" t="n">
-        <v>-6.454378287445763</v>
+        <v>-6.45437828744576</v>
       </c>
       <c r="P29" t="n">
         <v>-2.744922490499713</v>
@@ -2867,16 +2867,16 @@
         <v>-1.72521794390922</v>
       </c>
       <c r="S29" t="n">
-        <v>1.912398137920723</v>
+        <v>1.912398137920724</v>
       </c>
       <c r="T29" t="n">
-        <v>1.038704079782806</v>
+        <v>1.038704079782805</v>
       </c>
       <c r="U29" t="n">
         <v>3.042936839112664</v>
       </c>
       <c r="V29" t="n">
-        <v>2.34298503868252</v>
+        <v>2.342985038682519</v>
       </c>
       <c r="W29" t="n">
         <v>1.163320038092477</v>
@@ -2885,10 +2885,10 @@
         <v>3.629422476960977</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.6861710504178977</v>
+        <v>0.6861710504178982</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07689696442099996</v>
+        <v>0.07689696442100004</v>
       </c>
       <c r="AA29" t="n">
         <v>1.501355988981464</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.13273539827357</v>
+        <v>4.132735398273571</v>
       </c>
       <c r="E30" t="n">
         <v>2.182903020347959</v>
@@ -2944,7 +2944,7 @@
         <v>5.199202962697943</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.748731361725368</v>
+        <v>2.748731361725367</v>
       </c>
       <c r="R30" t="n">
         <v>8.296721903286288</v>
@@ -2956,7 +2956,7 @@
         <v>2.001455387099721</v>
       </c>
       <c r="U30" t="n">
-        <v>6.12365004787389</v>
+        <v>6.123650047873889</v>
       </c>
       <c r="V30" t="n">
         <v>2.224597483333385</v>
@@ -2968,10 +2968,10 @@
         <v>3.771393189072202</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.5238264442108805</v>
+        <v>0.5238264442108806</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.07724347529232498</v>
+        <v>0.07724347529232502</v>
       </c>
       <c r="AA30" t="n">
         <v>1.207271289678538</v>
@@ -2988,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.140750990763042</v>
+        <v>3.140750990763041</v>
       </c>
       <c r="E31" t="n">
         <v>1.770845124099471</v>
       </c>
       <c r="F31" t="n">
-        <v>4.677191417024524</v>
+        <v>4.677191417024525</v>
       </c>
       <c r="G31" t="n">
-        <v>9.374986265516595</v>
+        <v>9.374986265516593</v>
       </c>
       <c r="H31" t="n">
         <v>6.033781003733129</v>
@@ -3033,7 +3033,7 @@
         <v>18.41759080807824</v>
       </c>
       <c r="S31" t="n">
-        <v>5.766566339150734</v>
+        <v>5.766566339150733</v>
       </c>
       <c r="T31" t="n">
         <v>2.974958248328346</v>
@@ -3045,19 +3045,19 @@
         <v>2.103187689390103</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8929830333999997</v>
+        <v>0.8929830333999998</v>
       </c>
       <c r="X31" t="n">
         <v>3.906095731552002</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.3586719756832664</v>
+        <v>0.3586719756832661</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.07830610661078152</v>
+        <v>0.07830610661078151</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.9093719366225111</v>
+        <v>0.9093719366225113</v>
       </c>
     </row>
     <row r="32">
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7908426522704297</v>
+        <v>0.7908426522704293</v>
       </c>
       <c r="E32" t="n">
         <v>0.5008865379239977</v>
@@ -3080,13 +3080,13 @@
         <v>1.044373198323009</v>
       </c>
       <c r="G32" t="n">
-        <v>7.84889110378665</v>
+        <v>7.848891103786653</v>
       </c>
       <c r="H32" t="n">
         <v>5.01770812924956</v>
       </c>
       <c r="I32" t="n">
-        <v>10.71459122925467</v>
+        <v>10.71459122925468</v>
       </c>
       <c r="J32" t="n">
         <v>17.8600818728206</v>
@@ -3119,7 +3119,7 @@
         <v>6.683636760545976</v>
       </c>
       <c r="T32" t="n">
-        <v>3.492237440724699</v>
+        <v>3.4922374407247</v>
       </c>
       <c r="U32" t="n">
         <v>10.67568003803367</v>
@@ -3134,10 +3134,10 @@
         <v>4.236662982447111</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.3473414275688819</v>
+        <v>0.3473414275688816</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08491408549423946</v>
+        <v>0.08491408549423939</v>
       </c>
       <c r="AA32" t="n">
         <v>0.8849702859094499</v>
@@ -3154,19 +3154,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3.915077949452415</v>
+        <v>3.915077949452414</v>
       </c>
       <c r="E33" t="n">
         <v>2.154907524710243</v>
       </c>
       <c r="F33" t="n">
-        <v>5.892992899461961</v>
+        <v>5.892992899461962</v>
       </c>
       <c r="G33" t="n">
-        <v>13.84150281731343</v>
+        <v>13.84150281731344</v>
       </c>
       <c r="H33" t="n">
-        <v>8.874588830877112</v>
+        <v>8.87458883087711</v>
       </c>
       <c r="I33" t="n">
         <v>18.98973806486096</v>
@@ -3205,7 +3205,7 @@
         <v>2.18159245413371</v>
       </c>
       <c r="U33" t="n">
-        <v>7.44794866736054</v>
+        <v>7.447948667360541</v>
       </c>
       <c r="V33" t="n">
         <v>1.638760832193979</v>
@@ -3217,13 +3217,13 @@
         <v>3.194459913974981</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2837063979107439</v>
+        <v>0.2837063979107437</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.04522239233623393</v>
+        <v>0.04522239233623392</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.7609706107676668</v>
+        <v>0.7609706107676669</v>
       </c>
     </row>
     <row r="34">
@@ -3270,28 +3270,28 @@
         <v>3.157136484993364</v>
       </c>
       <c r="O34" t="n">
-        <v>8.483740398087644</v>
+        <v>8.483740398087646</v>
       </c>
       <c r="P34" t="n">
         <v>1.047032475285215</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.3424912895189891</v>
+        <v>-0.34249128951899</v>
       </c>
       <c r="R34" t="n">
         <v>3.342655021192019</v>
       </c>
       <c r="S34" t="n">
-        <v>1.16645155557808</v>
+        <v>1.166451555578081</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3106620594995282</v>
+        <v>0.3106620594995277</v>
       </c>
       <c r="U34" t="n">
-        <v>2.66426502452083</v>
+        <v>2.664265024520829</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9174483726172589</v>
+        <v>0.9174483726172584</v>
       </c>
       <c r="W34" t="n">
         <v>0.3091778449536315</v>
@@ -3303,7 +3303,7 @@
         <v>0.242641365649378</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.00394176149375558</v>
+        <v>-0.003941761493755525</v>
       </c>
       <c r="AA34" t="n">
         <v>0.676631201351345</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.538268588510048</v>
+        <v>2.538268588510049</v>
       </c>
       <c r="E35" t="n">
         <v>1.260545928912365</v>
@@ -3335,13 +3335,13 @@
         <v>5.104372516441394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.31034073951727</v>
+        <v>12.31034073951728</v>
       </c>
       <c r="J35" t="n">
         <v>9.055014431454797</v>
       </c>
       <c r="K35" t="n">
-        <v>5.564995006658607</v>
+        <v>5.564995006658608</v>
       </c>
       <c r="L35" t="n">
         <v>12.94937648881079</v>
@@ -3359,13 +3359,13 @@
         <v>4.039492939652098</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93766115244177</v>
+        <v>1.937661152441769</v>
       </c>
       <c r="R35" t="n">
-        <v>6.708234224822537</v>
+        <v>6.708234224822536</v>
       </c>
       <c r="S35" t="n">
-        <v>3.928493336420163</v>
+        <v>3.928493336420164</v>
       </c>
       <c r="T35" t="n">
         <v>2.148523341957483</v>
@@ -3383,10 +3383,10 @@
         <v>4.239679791331217</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.6438409179449505</v>
+        <v>0.6438409179449507</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.09512576531783642</v>
+        <v>0.09512576531783647</v>
       </c>
       <c r="AA35" t="n">
         <v>1.425850111283642</v>
@@ -3412,13 +3412,13 @@
         <v>-2.024129224223849</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6068652823756633</v>
+        <v>0.6068652823756651</v>
       </c>
       <c r="H36" t="n">
         <v>0.102434752381158</v>
       </c>
       <c r="I36" t="n">
-        <v>1.28147096371333</v>
+        <v>1.281470963713334</v>
       </c>
       <c r="J36" t="n">
         <v>8.456886500654779</v>
@@ -3466,10 +3466,10 @@
         <v>5.568841092909904</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6792862255651224</v>
+        <v>0.6792862255651225</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.145722160042089</v>
+        <v>0.1457221600420889</v>
       </c>
       <c r="AA36" t="n">
         <v>1.502560213193764</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.09566487961097</v>
+        <v>4.095664879610972</v>
       </c>
       <c r="E37" t="n">
         <v>2.078441195837764</v>
@@ -3504,7 +3504,7 @@
         <v>14.7250584597424</v>
       </c>
       <c r="J37" t="n">
-        <v>7.629904231972613</v>
+        <v>7.629904231972614</v>
       </c>
       <c r="K37" t="n">
         <v>4.600663436594131</v>
@@ -3531,16 +3531,16 @@
         <v>2.540972669254881</v>
       </c>
       <c r="S37" t="n">
-        <v>2.93344247686394</v>
+        <v>2.933442476863941</v>
       </c>
       <c r="T37" t="n">
-        <v>1.598989487826</v>
+        <v>1.598989487825999</v>
       </c>
       <c r="U37" t="n">
         <v>4.598889111279245</v>
       </c>
       <c r="V37" t="n">
-        <v>2.465383362684525</v>
+        <v>2.465383362684524</v>
       </c>
       <c r="W37" t="n">
         <v>1.1947551001212</v>
@@ -3549,10 +3549,10 @@
         <v>3.930917049330385</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6636010530211257</v>
+        <v>0.6636010530211259</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.08636942509298395</v>
+        <v>0.08636942509298401</v>
       </c>
       <c r="AA37" t="n">
         <v>1.461695723256003</v>
@@ -3584,7 +3584,7 @@
         <v>14.29823610926684</v>
       </c>
       <c r="I38" t="n">
-        <v>30.03258585567822</v>
+        <v>30.03258585567821</v>
       </c>
       <c r="J38" t="n">
         <v>22.17662235477226</v>
@@ -3608,22 +3608,22 @@
         <v>5.631522718268444</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.943285164261214</v>
+        <v>2.943285164261213</v>
       </c>
       <c r="R38" t="n">
         <v>9.197333312819872</v>
       </c>
       <c r="S38" t="n">
-        <v>2.085488056943365</v>
+        <v>2.085488056943366</v>
       </c>
       <c r="T38" t="n">
-        <v>0.72387951268496</v>
+        <v>0.7238795126849595</v>
       </c>
       <c r="U38" t="n">
         <v>4.217237791371483</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6736402546719722</v>
+        <v>0.6736402546719724</v>
       </c>
       <c r="W38" t="n">
         <v>0.1453919027388566</v>
@@ -3632,10 +3632,10 @@
         <v>1.683970243243837</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1000568945185361</v>
+        <v>0.1000568945185357</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.01235159084728303</v>
+        <v>-0.01235159084728299</v>
       </c>
       <c r="AA38" t="n">
         <v>0.4183921140207796</v>
@@ -3667,10 +3667,10 @@
         <v>12.22377055954242</v>
       </c>
       <c r="I39" t="n">
-        <v>26.79889992549057</v>
+        <v>26.79889992549056</v>
       </c>
       <c r="J39" t="n">
-        <v>16.22177531237083</v>
+        <v>16.22177531237082</v>
       </c>
       <c r="K39" t="n">
         <v>10.49780387718734</v>
@@ -3685,7 +3685,7 @@
         <v>1.156537750201843</v>
       </c>
       <c r="O39" t="n">
-        <v>4.68576003329505</v>
+        <v>4.685760033295052</v>
       </c>
       <c r="P39" t="n">
         <v>0.01761247168528612</v>
@@ -3697,16 +3697,16 @@
         <v>1.952025457921156</v>
       </c>
       <c r="S39" t="n">
-        <v>1.320446351929998</v>
+        <v>1.320446351929999</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4792331221807102</v>
+        <v>0.4792331221807093</v>
       </c>
       <c r="U39" t="n">
         <v>2.723668190348776</v>
       </c>
       <c r="V39" t="n">
-        <v>1.277610337376258</v>
+        <v>1.277610337376257</v>
       </c>
       <c r="W39" t="n">
         <v>0.5156693378378763</v>
@@ -3715,13 +3715,13 @@
         <v>2.304512536129609</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3570361147422542</v>
+        <v>0.3570361147422543</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01537276942601891</v>
+        <v>0.01537276942601896</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.8875807154502496</v>
+        <v>0.8875807154502495</v>
       </c>
     </row>
     <row r="40">
@@ -3738,31 +3738,31 @@
         <v>-1.397364186023909</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8819992829948478</v>
+        <v>-0.8819992829948473</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.892300812152675</v>
+        <v>-1.892300812152674</v>
       </c>
       <c r="G40" t="n">
         <v>-2.472343669698041</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.079517620634193</v>
+        <v>-2.079517620634192</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.51722366642854</v>
+        <v>-2.517223666428539</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9675746889669057</v>
+        <v>0.9675746889669075</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.04219990140106411</v>
+        <v>-0.042199901401065</v>
       </c>
       <c r="L40" t="n">
         <v>2.541144345927769</v>
       </c>
       <c r="M40" t="n">
-        <v>6.52699793404592</v>
+        <v>6.526997934045919</v>
       </c>
       <c r="N40" t="n">
         <v>3.546308161154931</v>
@@ -3780,7 +3780,7 @@
         <v>11.76123016451325</v>
       </c>
       <c r="S40" t="n">
-        <v>6.61452075907131</v>
+        <v>6.614520759071309</v>
       </c>
       <c r="T40" t="n">
         <v>3.850068223469385</v>
@@ -3798,7 +3798,7 @@
         <v>6.15304253763855</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.922216134185856</v>
+        <v>0.9222161341858564</v>
       </c>
       <c r="Z40" t="n">
         <v>0.1770271225510485</v>
@@ -3827,7 +3827,7 @@
         <v>-3.636836577097404</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.798911332929265</v>
+        <v>-3.798911332929267</v>
       </c>
       <c r="H41" t="n">
         <v>-2.716875710104639</v>
@@ -3836,10 +3836,10 @@
         <v>-4.80496163164951</v>
       </c>
       <c r="J41" t="n">
-        <v>5.315431124747677</v>
+        <v>5.315431124747679</v>
       </c>
       <c r="K41" t="n">
-        <v>2.824848500551902</v>
+        <v>2.8248485005519</v>
       </c>
       <c r="L41" t="n">
         <v>8.258518012294251</v>
@@ -3857,7 +3857,7 @@
         <v>16.2660788997084</v>
       </c>
       <c r="Q41" t="n">
-        <v>10.8372849011381</v>
+        <v>10.83728490113809</v>
       </c>
       <c r="R41" t="n">
         <v>21.8820990693052</v>
@@ -3866,7 +3866,7 @@
         <v>8.554601599379811</v>
       </c>
       <c r="T41" t="n">
-        <v>4.82357108469801</v>
+        <v>4.823571084698012</v>
       </c>
       <c r="U41" t="n">
         <v>12.72315144581613</v>
@@ -3884,7 +3884,7 @@
         <v>0.7570616656582418</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1780897538695051</v>
+        <v>0.178089753869505</v>
       </c>
       <c r="AA41" t="n">
         <v>1.654776192801708</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>5.20830355808944</v>
+        <v>5.208303558089439</v>
       </c>
       <c r="E42" t="n">
         <v>2.822115018552284</v>
@@ -3916,7 +3916,7 @@
         <v>9.976651163993424</v>
       </c>
       <c r="I42" t="n">
-        <v>21.51745752507694</v>
+        <v>21.51745752507693</v>
       </c>
       <c r="J42" t="n">
         <v>17.84442389590604</v>
@@ -3952,22 +3952,22 @@
         <v>1.621307046090517</v>
       </c>
       <c r="U42" t="n">
-        <v>5.891996395193959</v>
+        <v>5.891996395193958</v>
       </c>
       <c r="V42" t="n">
         <v>1.516362508191974</v>
       </c>
       <c r="W42" t="n">
-        <v>0.5898099505360692</v>
+        <v>0.5898099505360691</v>
       </c>
       <c r="X42" t="n">
         <v>2.892965341605574</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.306276395307516</v>
+        <v>0.3062763953075159</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.03574993166424993</v>
+        <v>0.03574993166424995</v>
       </c>
       <c r="AA42" t="n">
         <v>0.8006308764931279</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>4.396906080737466</v>
+        <v>4.396906080737467</v>
       </c>
       <c r="E43" t="n">
         <v>2.333590793431317</v>
@@ -3993,13 +3993,13 @@
         <v>6.818633052405374</v>
       </c>
       <c r="G43" t="n">
-        <v>10.64081399225591</v>
+        <v>10.6408139922559</v>
       </c>
       <c r="H43" t="n">
         <v>6.649641728545388</v>
       </c>
       <c r="I43" t="n">
-        <v>14.96503995473741</v>
+        <v>14.9650399547374</v>
       </c>
       <c r="J43" t="n">
         <v>10.85954342212849</v>
@@ -4014,7 +4014,7 @@
         <v>7.495751596392374</v>
       </c>
       <c r="N43" t="n">
-        <v>4.39968754374304</v>
+        <v>4.399687543743041</v>
       </c>
       <c r="O43" t="n">
         <v>11.28011529460451</v>
@@ -4023,13 +4023,13 @@
         <v>5.2643479724209</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.79664976090053</v>
+        <v>2.796649760900529</v>
       </c>
       <c r="R43" t="n">
         <v>8.395650960882731</v>
       </c>
       <c r="S43" t="n">
-        <v>3.852478978229225</v>
+        <v>3.852478978229226</v>
       </c>
       <c r="T43" t="n">
         <v>2.012206941011431</v>
@@ -4050,7 +4050,7 @@
         <v>0.5210165818902837</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.07795959573945649</v>
+        <v>0.07795959573945654</v>
       </c>
       <c r="AA43" t="n">
         <v>1.203456635925438</v>
@@ -4076,19 +4076,19 @@
         <v>-3.672418090744769</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.222929561813839</v>
+        <v>-1.222929561813837</v>
       </c>
       <c r="H44" t="n">
         <v>-1.021124945393342</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.359250236493486</v>
+        <v>-1.35925023649348</v>
       </c>
       <c r="J44" t="n">
         <v>9.268210792422387</v>
       </c>
       <c r="K44" t="n">
-        <v>5.561596529125089</v>
+        <v>5.561596529125088</v>
       </c>
       <c r="L44" t="n">
         <v>13.32219792894074</v>
@@ -4115,7 +4115,7 @@
         <v>8.296632885479918</v>
       </c>
       <c r="T44" t="n">
-        <v>4.611993806369988</v>
+        <v>4.611993806369989</v>
       </c>
       <c r="U44" t="n">
         <v>12.55090095896414</v>
@@ -4133,7 +4133,7 @@
         <v>0.6539063658477534</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.1559107411612045</v>
+        <v>0.1559107411612044</v>
       </c>
       <c r="AA44" t="n">
         <v>1.459085293715203</v>
@@ -4195,28 +4195,28 @@
         <v>4.83221364205933</v>
       </c>
       <c r="S45" t="n">
-        <v>1.038450238613154</v>
+        <v>1.038450238613156</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1528425507300568</v>
+        <v>0.1528425507300559</v>
       </c>
       <c r="U45" t="n">
-        <v>2.633073688948893</v>
+        <v>2.633073688948892</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5542641692641139</v>
+        <v>0.5542641692641137</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1083215963897601</v>
+        <v>0.10832159638976</v>
       </c>
       <c r="X45" t="n">
         <v>1.389743840505854</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1254367542359051</v>
+        <v>0.1254367542359049</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.02254017196639856</v>
+        <v>-0.02254017196639849</v>
       </c>
       <c r="AA45" t="n">
         <v>0.4618670334993403</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.309741302218082</v>
+        <v>1.309741302218081</v>
       </c>
       <c r="E46" t="n">
         <v>0.7840316311552669</v>
@@ -4254,7 +4254,7 @@
         <v>13.29351629743131</v>
       </c>
       <c r="K46" t="n">
-        <v>8.272398249457813</v>
+        <v>8.272398249457812</v>
       </c>
       <c r="L46" t="n">
         <v>18.61822304300668</v>
@@ -4266,7 +4266,7 @@
         <v>15.02787917206374</v>
       </c>
       <c r="O46" t="n">
-        <v>32.18488512049103</v>
+        <v>32.18488512049102</v>
       </c>
       <c r="P46" t="n">
         <v>15.73412366140193</v>
@@ -4287,7 +4287,7 @@
         <v>10.90435418539767</v>
       </c>
       <c r="V46" t="n">
-        <v>2.579703500962813</v>
+        <v>2.579703500962814</v>
       </c>
       <c r="W46" t="n">
         <v>1.142180076953714</v>
@@ -4296,10 +4296,10 @@
         <v>4.646804227654724</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4448770027381765</v>
+        <v>0.4448770027381763</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.1085253390968031</v>
+        <v>0.108525339096803</v>
       </c>
       <c r="AA46" t="n">
         <v>1.073031877489755</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>6.311499521587768</v>
+        <v>6.311499521587766</v>
       </c>
       <c r="E47" t="n">
         <v>3.547558388331358</v>
@@ -4367,10 +4367,10 @@
         <v>1.855201882683057</v>
       </c>
       <c r="U47" t="n">
-        <v>7.357354165960658</v>
+        <v>7.357354165960657</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9154146640818357</v>
+        <v>0.9154146640818361</v>
       </c>
       <c r="W47" t="n">
         <v>0.213897271116676</v>
@@ -4379,13 +4379,13 @@
         <v>2.279691218351227</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.05210703740439482</v>
+        <v>0.05210703740439443</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.007309450943816478</v>
+        <v>0.007309450943816465</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.3352569288167577</v>
+        <v>0.3352569288167576</v>
       </c>
     </row>
     <row r="48">
@@ -4414,7 +4414,7 @@
         <v>9.447454826372999</v>
       </c>
       <c r="I48" t="n">
-        <v>20.93847081010941</v>
+        <v>20.9384708101094</v>
       </c>
       <c r="J48" t="n">
         <v>13.6941058441783</v>
@@ -4432,7 +4432,7 @@
         <v>2.762224029214731</v>
       </c>
       <c r="O48" t="n">
-        <v>7.957557386586085</v>
+        <v>7.957557386586084</v>
       </c>
       <c r="P48" t="n">
         <v>2.608407717191614</v>
@@ -4444,16 +4444,16 @@
         <v>5.124373680603723</v>
       </c>
       <c r="S48" t="n">
-        <v>2.573465925386115</v>
+        <v>2.573465925386116</v>
       </c>
       <c r="T48" t="n">
-        <v>1.240344254640216</v>
+        <v>1.240344254640215</v>
       </c>
       <c r="U48" t="n">
         <v>4.423659119111333</v>
       </c>
       <c r="V48" t="n">
-        <v>1.751103910354821</v>
+        <v>1.75110391035482</v>
       </c>
       <c r="W48" t="n">
         <v>0.770501625711964</v>
@@ -4462,10 +4462,10 @@
         <v>3.037952862600906</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.4404312794765673</v>
+        <v>0.4404312794765675</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.04630812235917194</v>
+        <v>0.04630812235917199</v>
       </c>
       <c r="AA48" t="n">
         <v>1.047426002564394</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.020885921960559</v>
+        <v>-4.020885921960557</v>
       </c>
       <c r="E49" t="n">
         <v>-2.320876095189125</v>
@@ -4497,10 +4497,10 @@
         <v>-4.769843895170871</v>
       </c>
       <c r="I49" t="n">
-        <v>-7.925645821846329</v>
+        <v>-7.925645821846322</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.3325229637964675</v>
+        <v>-0.3325229637964657</v>
       </c>
       <c r="K49" t="n">
         <v>-0.915434976535189</v>
@@ -4509,7 +4509,7 @@
         <v>0.8073032003859701</v>
       </c>
       <c r="M49" t="n">
-        <v>8.916165987986082</v>
+        <v>8.91616598798608</v>
       </c>
       <c r="N49" t="n">
         <v>5.024885498106133</v>
@@ -4521,7 +4521,7 @@
         <v>10.58702364340228</v>
       </c>
       <c r="Q49" t="n">
-        <v>6.788356637249456</v>
+        <v>6.788356637249457</v>
       </c>
       <c r="R49" t="n">
         <v>14.53786215681004</v>
@@ -4548,7 +4548,7 @@
         <v>1.016850748202557</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.2050979936956755</v>
+        <v>0.2050979936956754</v>
       </c>
       <c r="AA49" t="n">
         <v>2.127779447984278</v>
@@ -4583,55 +4583,55 @@
         <v>14.95106193972409</v>
       </c>
       <c r="J50" t="n">
-        <v>8.243690139687191</v>
+        <v>8.243690139687189</v>
       </c>
       <c r="K50" t="n">
-        <v>5.050254128281424</v>
+        <v>5.050254128281425</v>
       </c>
       <c r="L50" t="n">
         <v>11.87178163988962</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.6513349595451903</v>
+        <v>-0.651334959545192</v>
       </c>
       <c r="N50" t="n">
         <v>-1.23897344036831</v>
       </c>
       <c r="O50" t="n">
-        <v>0.361596657000895</v>
+        <v>0.3615966570008986</v>
       </c>
       <c r="P50" t="n">
         <v>0.5495677099917557</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.5849634912299972</v>
+        <v>-0.5849634912299964</v>
       </c>
       <c r="R50" t="n">
         <v>2.343114554061993</v>
       </c>
       <c r="S50" t="n">
-        <v>2.881455518089953</v>
+        <v>2.881455518089954</v>
       </c>
       <c r="T50" t="n">
-        <v>1.57748638000258</v>
+        <v>1.577486380002579</v>
       </c>
       <c r="U50" t="n">
         <v>4.542465450767226</v>
       </c>
       <c r="V50" t="n">
-        <v>2.471427839872818</v>
+        <v>2.471427839872817</v>
       </c>
       <c r="W50" t="n">
-        <v>1.183484611480453</v>
+        <v>1.183484611480454</v>
       </c>
       <c r="X50" t="n">
         <v>3.945453388593235</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.6692207776623196</v>
+        <v>0.6692207776623198</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.08493718419872091</v>
+        <v>0.08493718419872097</v>
       </c>
       <c r="AA50" t="n">
         <v>1.469325030762203</v>
@@ -4651,7 +4651,7 @@
         <v>-6.125509007949557</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.476607814152133</v>
+        <v>-3.476607814152134</v>
       </c>
       <c r="F51" t="n">
         <v>-9.051192708613611</v>
@@ -4663,13 +4663,13 @@
         <v>-9.198915663735221</v>
       </c>
       <c r="I51" t="n">
-        <v>-17.00578285240183</v>
+        <v>-17.00578285240182</v>
       </c>
       <c r="J51" t="n">
-        <v>-6.199186191949124</v>
+        <v>-6.199186191949121</v>
       </c>
       <c r="K51" t="n">
-        <v>-4.975008771929795</v>
+        <v>-4.975008771929796</v>
       </c>
       <c r="L51" t="n">
         <v>-6.740965835863491</v>
@@ -4702,7 +4702,7 @@
         <v>13.01718776963993</v>
       </c>
       <c r="V51" t="n">
-        <v>5.208124385307075</v>
+        <v>5.208124385307074</v>
       </c>
       <c r="W51" t="n">
         <v>2.647231810774017</v>
@@ -4711,7 +4711,7 @@
         <v>8.088209792840157</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.209020937388552</v>
+        <v>1.209020937388553</v>
       </c>
       <c r="Z51" t="n">
         <v>0.256780118442866</v>
@@ -4740,13 +4740,13 @@
         <v>-2.517281993083776</v>
       </c>
       <c r="G52" t="n">
-        <v>1.170832399825853</v>
+        <v>1.170832399825856</v>
       </c>
       <c r="H52" t="n">
         <v>0.6101337253433972</v>
       </c>
       <c r="I52" t="n">
-        <v>1.747455938690015</v>
+        <v>1.74745593869002</v>
       </c>
       <c r="J52" t="n">
         <v>12.30031159852523</v>
@@ -4770,7 +4770,7 @@
         <v>17.99919385829347</v>
       </c>
       <c r="Q52" t="n">
-        <v>12.02815972712884</v>
+        <v>12.02815972712883</v>
       </c>
       <c r="R52" t="n">
         <v>24.16871290786471</v>
@@ -4779,7 +4779,7 @@
         <v>8.116644609741005</v>
       </c>
       <c r="T52" t="n">
-        <v>4.432671189777096</v>
+        <v>4.432671189777097</v>
       </c>
       <c r="U52" t="n">
         <v>12.46328596288019</v>
@@ -4794,13 +4794,13 @@
         <v>5.416585402283147</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.5423214790754742</v>
+        <v>0.5423214790754741</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.1358800897942985</v>
+        <v>0.1358800897942984</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.251950433369398</v>
+        <v>1.251950433369399</v>
       </c>
     </row>
     <row r="53">
@@ -4823,13 +4823,13 @@
         <v>12.4254829807692</v>
       </c>
       <c r="G53" t="n">
-        <v>19.0879276039143</v>
+        <v>19.08792760391429</v>
       </c>
       <c r="H53" t="n">
         <v>12.15927846556787</v>
       </c>
       <c r="I53" t="n">
-        <v>26.45989470551804</v>
+        <v>26.45989470551803</v>
       </c>
       <c r="J53" t="n">
         <v>15.30109645079896</v>
@@ -4853,22 +4853,22 @@
         <v>0.2130475008541595</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.9139695029267774</v>
+        <v>-0.9139695029267783</v>
       </c>
       <c r="R53" t="n">
         <v>2.248812630710487</v>
       </c>
       <c r="S53" t="n">
-        <v>1.398426790090979</v>
+        <v>1.398426790090981</v>
       </c>
       <c r="T53" t="n">
-        <v>0.5114877839158405</v>
+        <v>0.5114877839158396</v>
       </c>
       <c r="U53" t="n">
-        <v>2.808303681116805</v>
+        <v>2.808303681116804</v>
       </c>
       <c r="V53" t="n">
-        <v>1.268543621593818</v>
+        <v>1.268543621593817</v>
       </c>
       <c r="W53" t="n">
         <v>0.5325750707989961</v>
@@ -4880,7 +4880,7 @@
         <v>0.3486065277804634</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.01752113076741345</v>
+        <v>0.01752113076741353</v>
       </c>
       <c r="AA53" t="n">
         <v>0.8761367541909499</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.198529746230282</v>
+        <v>1.198529746230283</v>
       </c>
       <c r="E54" t="n">
         <v>0.4706461576246816</v>
@@ -4906,25 +4906,25 @@
         <v>2.16250714811404</v>
       </c>
       <c r="G54" t="n">
-        <v>3.641747916812567</v>
+        <v>3.641747916812565</v>
       </c>
       <c r="H54" t="n">
         <v>1.820357810309731</v>
       </c>
       <c r="I54" t="n">
-        <v>5.983926649159433</v>
+        <v>5.983926649159432</v>
       </c>
       <c r="J54" t="n">
-        <v>2.683919865391822</v>
+        <v>2.683919865391823</v>
       </c>
       <c r="K54" t="n">
-        <v>1.215475678730464</v>
+        <v>1.215475678730465</v>
       </c>
       <c r="L54" t="n">
         <v>4.698886590670744</v>
       </c>
       <c r="M54" t="n">
-        <v>-1.133742930396489</v>
+        <v>-1.133742930396487</v>
       </c>
       <c r="N54" t="n">
         <v>-1.602108660631522</v>
@@ -4936,7 +4936,7 @@
         <v>2.176087961621112</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6509495281007069</v>
+        <v>0.6509495281007061</v>
       </c>
       <c r="R54" t="n">
         <v>4.223762271070138</v>
@@ -4951,7 +4951,7 @@
         <v>6.330071375613739</v>
       </c>
       <c r="V54" t="n">
-        <v>3.302061139016233</v>
+        <v>3.302061139016232</v>
       </c>
       <c r="W54" t="n">
         <v>1.650443636559159</v>
@@ -4960,7 +4960,7 @@
         <v>5.125375808429271</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.8642008291689118</v>
+        <v>0.8642008291689123</v>
       </c>
       <c r="Z54" t="n">
         <v>0.13590318849878</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>2.000484508602113</v>
+        <v>2.000484508602114</v>
       </c>
       <c r="E55" t="n">
         <v>0.9409399298102021</v>
@@ -4989,10 +4989,10 @@
         <v>3.317643245775032</v>
       </c>
       <c r="G55" t="n">
-        <v>6.035509878452258</v>
+        <v>6.035509878452257</v>
       </c>
       <c r="H55" t="n">
-        <v>3.451616481046469</v>
+        <v>3.45161648104647</v>
       </c>
       <c r="I55" t="n">
         <v>9.090632824342933</v>
@@ -5007,7 +5007,7 @@
         <v>8.636444546225475</v>
       </c>
       <c r="M55" t="n">
-        <v>1.741770815038835</v>
+        <v>1.741770815038834</v>
       </c>
       <c r="N55" t="n">
         <v>0.3667128386445775</v>
@@ -5028,10 +5028,10 @@
         <v>4.13447509154607</v>
       </c>
       <c r="T55" t="n">
-        <v>2.338597512462085</v>
+        <v>2.338597512462084</v>
       </c>
       <c r="U55" t="n">
-        <v>6.242456379529783</v>
+        <v>6.242456379529784</v>
       </c>
       <c r="V55" t="n">
         <v>2.944921412851381</v>
@@ -5043,7 +5043,7 @@
         <v>4.678893715064532</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.7526159423966328</v>
+        <v>0.752615942396633</v>
       </c>
       <c r="Z55" t="n">
         <v>0.115872537131874</v>
@@ -5069,10 +5069,10 @@
         <v>1.017406258682681</v>
       </c>
       <c r="F56" t="n">
-        <v>2.69266206484393</v>
+        <v>2.692662064843931</v>
       </c>
       <c r="G56" t="n">
-        <v>9.678685947976152</v>
+        <v>9.678685947976156</v>
       </c>
       <c r="H56" t="n">
         <v>6.141267827024059</v>
@@ -5120,16 +5120,16 @@
         <v>2.118298882360836</v>
       </c>
       <c r="W56" t="n">
-        <v>0.8648068117981333</v>
+        <v>0.8648068117981335</v>
       </c>
       <c r="X56" t="n">
         <v>3.942436579709129</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.3727212872862509</v>
+        <v>0.3727212872862508</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07472550437512393</v>
+        <v>0.0747255043751239</v>
       </c>
       <c r="AA56" t="n">
         <v>0.9284452053880107</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.055013334734327</v>
+        <v>1.055013334734326</v>
       </c>
       <c r="E57" t="n">
         <v>0.6515743110073557</v>
@@ -5155,7 +5155,7 @@
         <v>1.441279068759128</v>
       </c>
       <c r="G57" t="n">
-        <v>7.788151167294738</v>
+        <v>7.788151167294741</v>
       </c>
       <c r="H57" t="n">
         <v>4.996210764591375</v>
@@ -5209,10 +5209,10 @@
         <v>4.229394812815685</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.344531565248285</v>
+        <v>0.3445315652482848</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08563020594137097</v>
+        <v>0.08563020594137091</v>
       </c>
       <c r="AA57" t="n">
         <v>0.88115563215635</v>
@@ -5262,7 +5262,7 @@
         <v>-1.143641733822045</v>
       </c>
       <c r="O58" t="n">
-        <v>0.5138783211830749</v>
+        <v>0.5138783211830784</v>
       </c>
       <c r="P58" t="n">
         <v>0.7450027391606291</v>
@@ -5274,10 +5274,10 @@
         <v>2.639901726851324</v>
       </c>
       <c r="S58" t="n">
-        <v>2.959435956250934</v>
+        <v>2.959435956250935</v>
       </c>
       <c r="T58" t="n">
-        <v>1.60974104173771</v>
+        <v>1.609741041737709</v>
       </c>
       <c r="U58" t="n">
         <v>4.627100941535256</v>
@@ -5292,10 +5292,10 @@
         <v>3.923648879698959</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.6607911907005288</v>
+        <v>0.6607911907005291</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.08708554554011547</v>
+        <v>0.08708554554011554</v>
       </c>
       <c r="AA58" t="n">
         <v>1.457881069502903</v>
@@ -5312,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2.074625545927314</v>
+        <v>2.074625545927313</v>
       </c>
       <c r="E59" t="n">
         <v>1.149863578830592</v>
       </c>
       <c r="F59" t="n">
-        <v>3.125149448927414</v>
+        <v>3.125149448927413</v>
       </c>
       <c r="G59" t="n">
         <v>7.041964240368815</v>
@@ -5366,7 +5366,7 @@
         <v>9.291978252719073</v>
       </c>
       <c r="V59" t="n">
-        <v>2.463349654149101</v>
+        <v>2.463349654149102</v>
       </c>
       <c r="W59" t="n">
         <v>1.099474526284244</v>
@@ -5375,10 +5375,10 @@
         <v>4.359845994548166</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.4730667247761424</v>
+        <v>0.4730667247761423</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.09762063753055601</v>
+        <v>0.097620637530556</v>
       </c>
       <c r="AA59" t="n">
         <v>1.120321450721416</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>2.765368752311345</v>
+        <v>2.765368752311346</v>
       </c>
       <c r="E60" t="n">
         <v>1.306771877485527</v>
@@ -5404,7 +5404,7 @@
         <v>4.569026241859834</v>
       </c>
       <c r="G60" t="n">
-        <v>7.926044659133673</v>
+        <v>7.926044659133671</v>
       </c>
       <c r="H60" t="n">
         <v>4.596673543479155</v>
@@ -5416,10 +5416,10 @@
         <v>5.211589333584346</v>
       </c>
       <c r="K60" t="n">
-        <v>2.987892137239176</v>
+        <v>2.987892137239178</v>
       </c>
       <c r="L60" t="n">
-        <v>7.93422368433489</v>
+        <v>7.934223684334892</v>
       </c>
       <c r="M60" t="n">
         <v>-3.526848704980514</v>
@@ -5428,7 +5428,7 @@
         <v>-3.20779493964441</v>
       </c>
       <c r="O60" t="n">
-        <v>-3.385623153064305</v>
+        <v>-3.385623153064302</v>
       </c>
       <c r="P60" t="n">
         <v>-0.4147072838852157</v>
@@ -5440,7 +5440,7 @@
         <v>1.051414048387572</v>
       </c>
       <c r="S60" t="n">
-        <v>3.061443793828865</v>
+        <v>3.061443793828866</v>
       </c>
       <c r="T60" t="n">
         <v>1.756808996595471</v>
@@ -5449,7 +5449,7 @@
         <v>4.630080446851183</v>
       </c>
       <c r="V60" t="n">
-        <v>2.82856756603767</v>
+        <v>2.828567566037669</v>
       </c>
       <c r="W60" t="n">
         <v>1.395611348685072</v>
@@ -5458,10 +5458,10 @@
         <v>4.391935481957975</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.7808056644345986</v>
+        <v>0.7808056644345991</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.1049678355656269</v>
+        <v>0.104967835565627</v>
       </c>
       <c r="AA60" t="n">
         <v>1.676459891108008</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>6.010258320461272</v>
+        <v>6.01025832046127</v>
       </c>
       <c r="E61" t="n">
         <v>3.292408790737805</v>
@@ -5541,13 +5541,13 @@
         <v>2.446483248240834</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.1946915085352369</v>
+        <v>0.1946915085352367</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.01571928029734393</v>
+        <v>0.01571928029734394</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.5934960161473231</v>
+        <v>0.5934960161473232</v>
       </c>
     </row>
     <row r="62">
@@ -5618,7 +5618,7 @@
         <v>1.995900558358831</v>
       </c>
       <c r="W62" t="n">
-        <v>0.8333717497694103</v>
+        <v>0.8333717497694102</v>
       </c>
       <c r="X62" t="n">
         <v>3.640942007339721</v>
@@ -5627,7 +5627,7 @@
         <v>0.395291284683023</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.06525304370313995</v>
+        <v>0.06525304370313993</v>
       </c>
       <c r="AA62" t="n">
         <v>0.9681054711134717</v>
@@ -5689,16 +5689,16 @@
         <v>5.827126974944418</v>
       </c>
       <c r="S63" t="n">
-        <v>0.7804815247132613</v>
+        <v>0.7804815247132622</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.05873472759796527</v>
+        <v>-0.05873472759796616</v>
       </c>
       <c r="U63" t="n">
         <v>2.460823202096908</v>
       </c>
       <c r="V63" t="n">
-        <v>0.206191158881702</v>
+        <v>0.2061911588817016</v>
       </c>
       <c r="W63" t="n">
         <v>-0.1207108737759779</v>
@@ -5707,10 +5707,10 @@
         <v>0.9650662560353909</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.02228145442541662</v>
+        <v>0.02228145442541646</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.04471918467469911</v>
+        <v>-0.04471918467469906</v>
       </c>
       <c r="AA63" t="n">
         <v>0.2661761344128353</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3.029539434775241</v>
+        <v>3.029539434775243</v>
       </c>
       <c r="E64" t="n">
         <v>1.457459650568885</v>
@@ -5742,19 +5742,19 @@
         <v>4.575176178820969</v>
       </c>
       <c r="I64" t="n">
-        <v>11.73135402454975</v>
+        <v>11.73135402454974</v>
       </c>
       <c r="J64" t="n">
-        <v>4.904696379727057</v>
+        <v>4.904696379727058</v>
       </c>
       <c r="K64" t="n">
-        <v>2.763096791395529</v>
+        <v>2.76309679139553</v>
       </c>
       <c r="L64" t="n">
         <v>7.558849697304304</v>
       </c>
       <c r="M64" t="n">
-        <v>-3.525864274819549</v>
+        <v>-3.525864274819545</v>
       </c>
       <c r="N64" t="n">
         <v>-3.176017704128988</v>
@@ -5766,22 +5766,22 @@
         <v>-0.3495622741622579</v>
       </c>
       <c r="Q64" t="n">
-        <v>-1.204360103812947</v>
+        <v>-1.204360103812948</v>
       </c>
       <c r="R64" t="n">
         <v>1.150343105984016</v>
       </c>
       <c r="S64" t="n">
-        <v>3.087437273215859</v>
+        <v>3.08743727321586</v>
       </c>
       <c r="T64" t="n">
-        <v>1.767560550507182</v>
+        <v>1.767560550507181</v>
       </c>
       <c r="U64" t="n">
         <v>4.658292277107192</v>
       </c>
       <c r="V64" t="n">
-        <v>2.825545327443523</v>
+        <v>2.825545327443522</v>
       </c>
       <c r="W64" t="n">
         <v>1.401246593005445</v>
@@ -5790,10 +5790,10 @@
         <v>4.384667312326549</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.7779958021140017</v>
+        <v>0.7779958021140021</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.1056839560127584</v>
+        <v>0.1056839560127585</v>
       </c>
       <c r="AA64" t="n">
         <v>1.672645237354908</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.5118256713467368</v>
+        <v>-0.5118256713467377</v>
       </c>
       <c r="E65" t="n">
         <v>-0.1845514088534901</v>
@@ -5819,19 +5819,19 @@
         <v>-0.9652400249866648</v>
       </c>
       <c r="G65" t="n">
-        <v>3.503854424973634</v>
+        <v>3.503854424973635</v>
       </c>
       <c r="H65" t="n">
-        <v>2.219895031421951</v>
+        <v>2.21989503142195</v>
       </c>
       <c r="I65" t="n">
-        <v>4.741160373882671</v>
+        <v>4.741160373882677</v>
       </c>
       <c r="J65" t="n">
         <v>15.02551945077079</v>
       </c>
       <c r="K65" t="n">
-        <v>9.461525165365938</v>
+        <v>9.461525165365936</v>
       </c>
       <c r="L65" t="n">
         <v>20.82193985301961</v>
@@ -5855,10 +5855,10 @@
         <v>25.55934247113557</v>
       </c>
       <c r="S65" t="n">
-        <v>7.962649813389087</v>
+        <v>7.962649813389086</v>
       </c>
       <c r="T65" t="n">
-        <v>4.264100127095914</v>
+        <v>4.264100127095915</v>
       </c>
       <c r="U65" t="n">
         <v>12.40388279705224</v>
@@ -5873,10 +5873,10 @@
         <v>4.962835139286982</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.4279267299825982</v>
+        <v>0.4279267299825979</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.116565558874524</v>
+        <v>0.1165655588745239</v>
       </c>
       <c r="AA65" t="n">
         <v>1.041000919270494</v>
@@ -5935,19 +5935,19 @@
         <v>1.416981544044341</v>
       </c>
       <c r="R66" t="n">
-        <v>6.218216071085256</v>
+        <v>6.218216071085255</v>
       </c>
       <c r="S66" t="n">
-        <v>2.341490690873215</v>
+        <v>2.341490690873217</v>
       </c>
       <c r="T66" t="n">
-        <v>1.039518530223904</v>
+        <v>1.039518530223903</v>
       </c>
       <c r="U66" t="n">
         <v>4.279620462515358</v>
       </c>
       <c r="V66" t="n">
-        <v>1.400008661378263</v>
+        <v>1.400008661378262</v>
       </c>
       <c r="W66" t="n">
         <v>0.5471043998665994</v>
@@ -5959,7 +5959,7 @@
         <v>0.334466117345482</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.02484523009800289</v>
+        <v>0.02484523009800294</v>
       </c>
       <c r="AA66" t="n">
         <v>0.8479204497247887</v>
@@ -6021,7 +6021,7 @@
         <v>9.588422408960708</v>
       </c>
       <c r="S67" t="n">
-        <v>3.646497223103319</v>
+        <v>3.64649722310332</v>
       </c>
       <c r="T67" t="n">
         <v>1.822132770506829</v>
@@ -6042,7 +6042,7 @@
         <v>0.4122415574386014</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.05721282392541898</v>
+        <v>0.05721282392541901</v>
       </c>
       <c r="AA67" t="n">
         <v>1.000136429332733</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3588665448706401</v>
+        <v>-0.3588665448706387</v>
       </c>
       <c r="E68" t="n">
         <v>-0.3472491093007175</v>
@@ -6068,19 +6068,19 @@
         <v>-0.2795934592791181</v>
       </c>
       <c r="G68" t="n">
-        <v>1.933432945606888</v>
+        <v>1.933432945606889</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7397928418516031</v>
+        <v>0.739792841851604</v>
       </c>
       <c r="I68" t="n">
-        <v>3.569208928934302</v>
+        <v>3.569208928934304</v>
       </c>
       <c r="J68" t="n">
-        <v>4.109030064874005</v>
+        <v>4.109030064874007</v>
       </c>
       <c r="K68" t="n">
-        <v>2.179807248794941</v>
+        <v>2.179807248794942</v>
       </c>
       <c r="L68" t="n">
         <v>6.527229413653089</v>
@@ -6092,10 +6092,10 @@
         <v>1.8770674111112</v>
       </c>
       <c r="O68" t="n">
-        <v>6.752909699400782</v>
+        <v>6.752909699400783</v>
       </c>
       <c r="P68" t="n">
-        <v>5.53572317183554</v>
+        <v>5.535723171835539</v>
       </c>
       <c r="Q68" t="n">
         <v>3.077737373422149</v>
@@ -6110,10 +6110,10 @@
         <v>3.06745398318646</v>
       </c>
       <c r="U68" t="n">
-        <v>7.857811817524312</v>
+        <v>7.857811817524313</v>
       </c>
       <c r="V68" t="n">
-        <v>3.427481701612385</v>
+        <v>3.427481701612384</v>
       </c>
       <c r="W68" t="n">
         <v>1.676243454267509</v>
@@ -6122,7 +6122,7 @@
         <v>5.434138550430104</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.8444406940927367</v>
+        <v>0.8444406940927369</v>
       </c>
       <c r="Z68" t="n">
         <v>0.1446595287236324</v>
@@ -6160,7 +6160,7 @@
         <v>25.20315041522796</v>
       </c>
       <c r="J69" t="n">
-        <v>25.02684275373663</v>
+        <v>25.02684275373662</v>
       </c>
       <c r="K69" t="n">
         <v>16.39154584024703</v>
@@ -6205,13 +6205,13 @@
         <v>2.301495727245502</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.06053662436618557</v>
+        <v>0.06053662436618523</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.005161089602421925</v>
+        <v>0.005161089602421898</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.3467008900760574</v>
+        <v>0.3467008900760573</v>
       </c>
     </row>
     <row r="70">
@@ -6225,16 +6225,16 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.133193503560013</v>
+        <v>-1.133193503560012</v>
       </c>
       <c r="E70" t="n">
         <v>-0.7313115099114895</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.495394941716555</v>
+        <v>-1.495394941716556</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.533083606189953</v>
+        <v>-2.533083606189955</v>
       </c>
       <c r="H70" t="n">
         <v>-2.101014985292379</v>
@@ -6243,16 +6243,16 @@
         <v>-2.630225406419381</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6606817351096161</v>
+        <v>0.6606817351096197</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.2669952472447115</v>
+        <v>-0.2669952472447124</v>
       </c>
       <c r="L70" t="n">
         <v>2.165770358897182</v>
       </c>
       <c r="M70" t="n">
-        <v>6.527982364206887</v>
+        <v>6.527982364206886</v>
       </c>
       <c r="N70" t="n">
         <v>3.578085396670352</v>
@@ -6288,7 +6288,7 @@
         <v>6.145774368007125</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.9194062718652591</v>
+        <v>0.9194062718652594</v>
       </c>
       <c r="Z70" t="n">
         <v>0.17774324299818</v>
@@ -6317,22 +6317,22 @@
         <v>-5.585784415630634</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.071193421585132</v>
+        <v>-6.071193421585134</v>
       </c>
       <c r="H71" t="n">
         <v>-4.305139651525004</v>
       </c>
       <c r="I71" t="n">
-        <v>-7.685664326851329</v>
+        <v>-7.685664326851322</v>
       </c>
       <c r="J71" t="n">
-        <v>2.89711622635941</v>
+        <v>2.897116226359412</v>
       </c>
       <c r="K71" t="n">
         <v>1.212077201196947</v>
       </c>
       <c r="L71" t="n">
-        <v>5.071708030800696</v>
+        <v>5.071708030800695</v>
       </c>
       <c r="M71" t="n">
         <v>17.06128368360172</v>
@@ -6362,7 +6362,7 @@
         <v>12.75434278138806</v>
       </c>
       <c r="V71" t="n">
-        <v>4.136705206812518</v>
+        <v>4.136705206812519</v>
       </c>
       <c r="W71" t="n">
         <v>2.010851599160163</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3217960262080397</v>
+        <v>-0.3217960262080393</v>
       </c>
       <c r="E72" t="n">
         <v>-0.2427872847905224</v>
@@ -6400,19 +6400,19 @@
         <v>-0.375840357702927</v>
       </c>
       <c r="G72" t="n">
-        <v>2.436660126565166</v>
+        <v>2.436660126565167</v>
       </c>
       <c r="H72" t="n">
         <v>1.225994450155657</v>
       </c>
       <c r="I72" t="n">
-        <v>3.922192163920146</v>
+        <v>3.922192163920148</v>
       </c>
       <c r="J72" t="n">
         <v>7.645562208887171</v>
       </c>
       <c r="K72" t="n">
-        <v>4.532114772370724</v>
+        <v>4.532114772370725</v>
       </c>
       <c r="L72" t="n">
         <v>11.1670082310984</v>
@@ -6439,7 +6439,7 @@
         <v>6.202557248819497</v>
       </c>
       <c r="T72" t="n">
-        <v>3.469919882460181</v>
+        <v>3.469919882460182</v>
       </c>
       <c r="U72" t="n">
         <v>9.382572754118957</v>
@@ -6454,7 +6454,7 @@
         <v>5.274614690171921</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.7046660852824915</v>
+        <v>0.7046660852824916</v>
       </c>
       <c r="Z72" t="n">
         <v>0.1355335789229735</v>
